--- a/TestFormData.xlsx
+++ b/TestFormData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="109">
   <si>
     <t>Timestamp</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Rarely</t>
+  </si>
+  <si>
+    <t>3/23/2020 13:24:45</t>
+  </si>
+  <si>
+    <t>3/23/2020 13:24:46</t>
   </si>
 </sst>
 </file>
@@ -710,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,191 +1547,555 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:91" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-      <c r="CM4" s="1"/>
+    <row r="4" spans="1:91" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-      <c r="CM5" s="1"/>
+    <row r="5" spans="1:91" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="1:91" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
